--- a/biology/Zoologie/Clam_(mollusque)/Clam_(mollusque).xlsx
+++ b/biology/Zoologie/Clam_(mollusque)/Clam_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clam est le nom vernaculaire de plusieurs espèces de mollusques bivalves comestibles, rappelant de grandes palourdes, qui sont :
 Arctica islandica ou le clam d'Islande
 Les espèces du genre Mercenaria.
 Les espèces du genre Meretrix, dont Meretrix meretrix.
-Ce terme dérive de l'anglais du Xe siècle dans le sens de « lien, chaîne, objet destiné à serrer ». Ce terme est analogue au néerlandais klamp ou de l'allemand Klamm[1] qui désigne le même type de mollusque.
+Ce terme dérive de l'anglais du Xe siècle dans le sens de « lien, chaîne, objet destiné à serrer ». Ce terme est analogue au néerlandais klamp ou de l'allemand Klamm qui désigne le même type de mollusque.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, a été identifiée aux États-Unis une pathologie affectant les clams ; la leucémie des clams (Clam leukemia pour les anglophones), une sorte de cancer transmissible, qui a décimé une partie des populations sauvages de clams [2],[3], et qui pourrait s'être transmise aux moules d'élevage, à moins qu'une maladie du même type soit apparue chez les moules (moule bleue)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, a été identifiée aux États-Unis une pathologie affectant les clams ; la leucémie des clams (Clam leukemia pour les anglophones), une sorte de cancer transmissible, qui a décimé une partie des populations sauvages de clams  et qui pourrait s'être transmise aux moules d'élevage, à moins qu'une maladie du même type soit apparue chez les moules (moule bleue).
 </t>
         </is>
       </c>
